--- a/nr-mv-MS/ig/StructureDefinition-as-dr-device.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-mv-MS/ig/StructureDefinition-as-dr-device.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:26:13+00:00</t>
+    <t>2025-10-08T14:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1311,7 +1311,7 @@
     <t>Device.status</t>
   </si>
   <si>
-    <t>Le matériel est-il actif? active | inactive</t>
+    <t>Le matériel est-il actif ? active | inactive</t>
   </si>
   <si>
     <t>Status of the Device availability.</t>
